--- a/recipe/E_Recipe.xlsx
+++ b/recipe/E_Recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fishr\vending_dashboard\recipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A16AD-23E7-4B47-9625-7FB49FD9D780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0111DF-5DE5-4631-B138-BAB0C25ADFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>패션후르츠 시럽</t>
-  </si>
-  <si>
-    <t>ICE 얼글레이레몬 하이볼</t>
   </si>
   <si>
     <t>얼그레이레몬 하이볼 시럽</t>
@@ -416,6 +413,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -431,6 +429,44 @@
       </rPr>
       <t>파우더</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ICE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>얼그레이레몬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하이볼</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -710,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,6 +824,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1104,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1147,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
@@ -1194,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="13">
         <v>0</v>
@@ -1241,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="9">
         <v>19</v>
@@ -1288,7 +1327,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="13">
         <v>19</v>
@@ -1335,7 +1374,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="9">
         <v>20</v>
@@ -1382,7 +1421,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="13">
         <v>20</v>
@@ -1429,7 +1468,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="9">
         <v>16</v>
@@ -1476,7 +1515,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="13">
         <v>20</v>
@@ -1899,7 +1938,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
@@ -1946,7 +1985,7 @@
         <v>36</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="13">
         <v>0</v>
@@ -2170,8 +2209,8 @@
       <c r="B24" s="9">
         <v>106</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>50</v>
+      <c r="C24" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="D24" s="9" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("REGEXEXTRACT(C24,""[A-Z]{2,}"")"),"ICE")</f>
@@ -2181,7 +2220,7 @@
         <v>42</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
@@ -2218,7 +2257,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("REGEXEXTRACT(C25,""[A-Z]{2,}"")"),"ICE")</f>
@@ -2228,7 +2267,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="13">
         <v>0</v>
@@ -2265,16 +2304,16 @@
         <v>56</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="9">
         <v>13</v>
@@ -2311,7 +2350,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="13" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("REGEXEXTRACT(C27,""[A-Z]{2,}"")"),"HOT")</f>
@@ -2321,7 +2360,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="13">
         <v>0</v>
@@ -2358,7 +2397,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="22" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("REGEXEXTRACT(C28,""[A-Z]{2,}"")"),"ICE")</f>
@@ -2368,7 +2407,7 @@
         <v>22</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="22">
         <v>0</v>
